--- a/data/trans_orig/PCS12_SP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Estudios-trans_orig.xlsx
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>49.41967946400938</v>
+        <v>49.41967946400936</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>47.81804911632614</v>
@@ -669,10 +669,10 @@
         <v>48.14511430426833</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46.36556529061461</v>
+        <v>46.3655652906146</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>45.8533280046467</v>
+        <v>45.85332800464671</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>44.24263323864614</v>
@@ -693,7 +693,7 @@
         <v>45.94061737072204</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>43.6523752117084</v>
+        <v>43.65237521170839</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>48.78630977538386</v>
+        <v>48.825835721768</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>47.05622506959792</v>
+        <v>46.92484842536602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47.34763810343119</v>
+        <v>47.34162392138708</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45.45049426884102</v>
+        <v>45.4793937432987</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>45.176702563878</v>
+        <v>45.24819459705303</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>43.50684316241113</v>
+        <v>43.55910679978049</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>43.38597204610443</v>
+        <v>43.37489812976121</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>41.04690864199733</v>
+        <v>41.00521365678689</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>46.96766234358478</v>
+        <v>47.01256810639997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45.21645272799172</v>
+        <v>45.24154300014502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45.35895298407127</v>
+        <v>45.3652252972769</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>43.08528899517561</v>
+        <v>43.10552153064759</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>49.97011058520528</v>
+        <v>49.9323811861743</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>48.54264734065092</v>
+        <v>48.50717255088121</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48.9484377900588</v>
+        <v>48.89362128545093</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47.30875524245162</v>
+        <v>47.33219717930047</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>46.45803656284185</v>
+        <v>46.41734211492491</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>44.82698682225949</v>
+        <v>44.93114697396638</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>45.04008747379346</v>
+        <v>45.05435309264215</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>42.45063755034697</v>
+        <v>42.44255797080164</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>47.80921638651444</v>
+        <v>47.85816638215158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46.22107922331067</v>
+        <v>46.25644198353336</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46.51990850506807</v>
+        <v>46.58838068078998</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>44.26046100363457</v>
+        <v>44.24584299029122</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>53.83792370703302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52.23391072476127</v>
+        <v>52.23391072476129</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>53.19044888554726</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>54.07790871013199</v>
+        <v>54.07125098169112</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>53.71803258037934</v>
+        <v>53.70451524131144</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53.5045257062945</v>
+        <v>53.53040817324019</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51.85025013616886</v>
+        <v>51.88517272886261</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>52.85676832777092</v>
+        <v>52.83433403928893</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>52.45678590709364</v>
+        <v>52.4685401094123</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>52.14185724999215</v>
+        <v>52.10123846781853</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>50.95939543868768</v>
+        <v>50.93644012235334</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>53.5576940424079</v>
+        <v>53.57023788054563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53.21529736051077</v>
+        <v>53.19371497928687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52.94037677080909</v>
+        <v>52.95349868374458</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>51.52324225598705</v>
+        <v>51.53427891047146</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>54.55877810210001</v>
+        <v>54.5745765808833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>54.28601553250606</v>
+        <v>54.26540508179634</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>54.13162916849896</v>
+        <v>54.1157695451532</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52.55094966057254</v>
+        <v>52.559919396583</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>53.54015857002842</v>
+        <v>53.48217439060657</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>53.22430802612907</v>
+        <v>53.22745623632586</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>52.89455614166909</v>
+        <v>52.88538419411802</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>51.63009768488049</v>
+        <v>51.61314056764912</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>53.99250806001822</v>
+        <v>53.9854120780482</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53.68880793836341</v>
+        <v>53.68878681642106</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53.45886343350251</v>
+        <v>53.45202104368369</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>51.99917838995952</v>
+        <v>51.97891229876291</v>
       </c>
     </row>
     <row r="10">
@@ -935,13 +935,13 @@
         <v>54.472474506969</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>54.29110522108211</v>
+        <v>54.2911052210821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54.59499982859158</v>
+        <v>54.59499982859159</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53.40512087979506</v>
+        <v>53.40512087979505</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>53.33641772287505</v>
@@ -950,7 +950,7 @@
         <v>54.00241163847273</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>53.58231966439945</v>
+        <v>53.58231966439944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52.83452492307124</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>53.84620804061944</v>
+        <v>53.83537767837286</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>53.51950866194586</v>
+        <v>53.58951719530624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53.99158878925147</v>
+        <v>54.04325016194335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52.79310253203789</v>
+        <v>52.81829481748809</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>52.61737888311168</v>
+        <v>52.64308772360891</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>53.43516670499353</v>
+        <v>53.37100207038738</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>52.82183402621801</v>
+        <v>52.80527472971358</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>52.35182553119746</v>
+        <v>52.35304212242796</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>53.46186160291443</v>
+        <v>53.45908941213165</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53.73308704280143</v>
+        <v>53.68337119822792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53.64059014153298</v>
+        <v>53.61136594649392</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>52.74534285899146</v>
+        <v>52.78061188375469</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>54.93157209948476</v>
+        <v>54.95350875945282</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>54.82995469446176</v>
+        <v>54.86073217874608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55.07178007778395</v>
+        <v>55.04819221822297</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>53.85708686926593</v>
+        <v>53.8667282325779</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>53.92740197143782</v>
+        <v>53.9304818706653</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>54.50627491406183</v>
+        <v>54.51345143730979</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>54.18746859299991</v>
+        <v>54.19466297075574</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>53.30105641980816</v>
+        <v>53.30873644980743</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>54.31338983116293</v>
+        <v>54.30486711152713</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54.54973910584958</v>
+        <v>54.50745145165048</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54.50825603520705</v>
+        <v>54.4791935250523</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>53.45767417227577</v>
+        <v>53.43999110450531</v>
       </c>
     </row>
     <row r="13">
@@ -1068,16 +1068,16 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>52.81078759681099</v>
+        <v>52.81078759681098</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>52.26913548233496</v>
+        <v>52.26913548233495</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>52.68909098837538</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51.51025224141719</v>
+        <v>51.5102522414172</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>50.35557475485115</v>
@@ -1086,7 +1086,7 @@
         <v>49.75787888825498</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>50.37357270661639</v>
+        <v>50.3735727066164</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49.50012698284294</v>
@@ -1095,13 +1095,13 @@
         <v>51.56424734098984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50.98930056487457</v>
+        <v>50.98930056487458</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>51.50544747989397</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>50.47662337637002</v>
+        <v>50.47662337637001</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>52.52942784015313</v>
+        <v>52.55484493662536</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>51.93267028178513</v>
+        <v>51.98835176107549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52.4146419370938</v>
+        <v>52.39601458615844</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51.22114922008883</v>
+        <v>51.20858580134185</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>50.0451761431171</v>
+        <v>50.01231017446634</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>49.41674075887143</v>
+        <v>49.41571615552658</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>50.00625515803073</v>
+        <v>49.99692881788595</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>49.20701483431162</v>
+        <v>49.22115037350601</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>51.35068727131093</v>
+        <v>51.35440106731233</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50.75286907016526</v>
+        <v>50.74709452176853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51.27299185884686</v>
+        <v>51.26987156189583</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>50.26283686785876</v>
+        <v>50.28239476726968</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>53.07062330578763</v>
+        <v>53.07332851530058</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>52.55518137851519</v>
+        <v>52.56754031403432</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>52.94676834160413</v>
+        <v>52.97616981028887</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51.80813390907804</v>
+        <v>51.82445727604063</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>50.68482619341621</v>
+        <v>50.64657667059488</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>50.10651446994159</v>
+        <v>50.1269992446915</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>50.72024128289714</v>
+        <v>50.7171488380146</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>49.80777871839348</v>
+        <v>49.80231603330669</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>51.76058903395163</v>
+        <v>51.75199853030235</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51.2341956342631</v>
+        <v>51.22344167494261</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>51.74836852372469</v>
+        <v>51.74364505114487</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.69100247370875</v>
+        <v>50.66518435944894</v>
       </c>
     </row>
     <row r="16">
